--- a/data/trans_orig/IP16A05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A05-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFEFC88A-58A7-471B-A4A5-E8190B0166EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14F6621F-2800-4D5F-B481-30C1C4130FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{F7B62CF2-AD33-415A-B56B-1B761A82EA22}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{21A4B52C-BD13-449A-B135-0D3D03B64686}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -134,6 +134,63 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -191,63 +248,6 @@
     <t>11,55%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
     <t>89,8%</t>
   </si>
   <si>
@@ -359,6 +359,54 @@
     <t>22,84%</t>
   </si>
   <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
     <t>93,58%</t>
   </si>
   <si>
@@ -413,54 +461,6 @@
     <t>17,52%</t>
   </si>
   <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
     <t>87,04%</t>
   </si>
   <si>
@@ -572,6 +572,60 @@
     <t>26,43%</t>
   </si>
   <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
     <t>91,14%</t>
   </si>
   <si>
@@ -614,60 +668,6 @@
     <t>13,77%</t>
   </si>
   <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
     <t>86,97%</t>
   </si>
   <si>
@@ -773,6 +773,54 @@
     <t>19,32%</t>
   </si>
   <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
     <t>98,3%</t>
   </si>
   <si>
@@ -825,54 +873,6 @@
   </si>
   <si>
     <t>5,57%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
   </si>
   <si>
     <t>94,56%</t>
@@ -1318,7 +1318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444E19B6-7929-44E2-AD3A-A158C9A57D32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2DE9F7-4586-4F1D-A301-FCC9E02B7EDC}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1591,10 +1591,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="D7" s="7">
-        <v>51032</v>
+        <v>35936</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1606,10 +1606,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="I7" s="7">
-        <v>42042</v>
+        <v>29306</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1621,10 +1621,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="N7" s="7">
-        <v>93074</v>
+        <v>65242</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1642,10 +1642,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D8" s="7">
-        <v>4023</v>
+        <v>6454</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1657,10 +1657,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I8" s="7">
-        <v>2639</v>
+        <v>3397</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1672,10 +1672,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N8" s="7">
-        <v>6662</v>
+        <v>9851</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1693,10 +1693,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D9" s="7">
-        <v>55055</v>
+        <v>42390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1708,10 +1708,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I9" s="7">
-        <v>44681</v>
+        <v>32703</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1723,10 +1723,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="N9" s="7">
-        <v>99736</v>
+        <v>75093</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1746,10 +1746,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="D10" s="7">
-        <v>35936</v>
+        <v>51032</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1761,10 +1761,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="I10" s="7">
-        <v>29306</v>
+        <v>42042</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1776,10 +1776,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="N10" s="7">
-        <v>65242</v>
+        <v>93074</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1797,10 +1797,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D11" s="7">
-        <v>6454</v>
+        <v>4023</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1812,10 +1812,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>3397</v>
+        <v>2639</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1827,10 +1827,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N11" s="7">
-        <v>9851</v>
+        <v>6662</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1848,10 +1848,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D12" s="7">
-        <v>42390</v>
+        <v>55055</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1863,10 +1863,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="I12" s="7">
-        <v>32703</v>
+        <v>44681</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1878,10 +1878,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="N12" s="7">
-        <v>75093</v>
+        <v>99736</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2064,7 +2064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E008D8A2-74D2-478B-9D61-CD6732BEFDDC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA395BFA-1CD9-4F85-ACFC-C36D09ABE2DE}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2337,10 +2337,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D7" s="7">
-        <v>34555</v>
+        <v>49112</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>106</v>
@@ -2352,34 +2352,34 @@
         <v>108</v>
       </c>
       <c r="H7" s="7">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I7" s="7">
-        <v>35883</v>
+        <v>36559</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>118</v>
+      </c>
+      <c r="N7" s="7">
+        <v>85671</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="M7" s="7">
-        <v>102</v>
-      </c>
-      <c r="N7" s="7">
-        <v>70438</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2388,49 +2388,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D8" s="7">
-        <v>2372</v>
+        <v>8264</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>12</v>
+      </c>
+      <c r="I8" s="7">
+        <v>9208</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H8" s="7">
-        <v>9</v>
-      </c>
-      <c r="I8" s="7">
-        <v>6469</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>23</v>
+      </c>
+      <c r="N8" s="7">
+        <v>17472</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="M8" s="7">
-        <v>12</v>
-      </c>
-      <c r="N8" s="7">
-        <v>8841</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,10 +2439,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="D9" s="7">
-        <v>36927</v>
+        <v>57376</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2454,10 +2454,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I9" s="7">
-        <v>42352</v>
+        <v>45767</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2469,10 +2469,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="N9" s="7">
-        <v>79279</v>
+        <v>103143</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2492,49 +2492,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D10" s="7">
-        <v>49112</v>
+        <v>34555</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>52</v>
+      </c>
+      <c r="I10" s="7">
+        <v>35883</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H10" s="7">
-        <v>50</v>
-      </c>
-      <c r="I10" s="7">
-        <v>36559</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>102</v>
+      </c>
+      <c r="N10" s="7">
+        <v>70438</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="M10" s="7">
-        <v>118</v>
-      </c>
-      <c r="N10" s="7">
-        <v>85671</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2543,28 +2543,28 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>8264</v>
+        <v>2372</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>9</v>
+      </c>
+      <c r="I11" s="7">
+        <v>6469</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="H11" s="7">
-        <v>12</v>
-      </c>
-      <c r="I11" s="7">
-        <v>9208</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>135</v>
@@ -2573,10 +2573,10 @@
         <v>136</v>
       </c>
       <c r="M11" s="7">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="N11" s="7">
-        <v>17472</v>
+        <v>8841</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>137</v>
@@ -2594,10 +2594,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D12" s="7">
-        <v>57376</v>
+        <v>36927</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2609,10 +2609,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I12" s="7">
-        <v>45767</v>
+        <v>42352</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2624,10 +2624,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="N12" s="7">
-        <v>103143</v>
+        <v>79279</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2810,7 +2810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424F2140-FE0B-43C8-A27E-A586C9A6EB2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E243B11-73E4-4121-B02C-B2CCE900181D}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3083,10 +3083,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D7" s="7">
-        <v>37640</v>
+        <v>36479</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>177</v>
@@ -3098,34 +3098,34 @@
         <v>179</v>
       </c>
       <c r="H7" s="7">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="I7" s="7">
-        <v>34881</v>
+        <v>41772</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M7" s="7">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="N7" s="7">
-        <v>72520</v>
+        <v>78252</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,49 +3134,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>7</v>
+      </c>
+      <c r="D8" s="7">
+        <v>5344</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H8" s="7">
         <v>5</v>
       </c>
-      <c r="D8" s="7">
-        <v>3657</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H8" s="7">
-        <v>3</v>
-      </c>
       <c r="I8" s="7">
-        <v>2191</v>
+        <v>2860</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>189</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>118</v>
+        <v>191</v>
       </c>
       <c r="M8" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N8" s="7">
-        <v>5849</v>
+        <v>8204</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,10 +3185,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D9" s="7">
-        <v>41297</v>
+        <v>41823</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3200,10 +3200,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="I9" s="7">
-        <v>37072</v>
+        <v>44632</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3215,10 +3215,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="N9" s="7">
-        <v>78369</v>
+        <v>86456</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3238,49 +3238,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="7">
-        <v>36479</v>
+        <v>37640</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I10" s="7">
-        <v>41772</v>
+        <v>34881</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>194</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>195</v>
+        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M10" s="7">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="N10" s="7">
-        <v>78252</v>
+        <v>72520</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3289,40 +3289,40 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>5344</v>
+        <v>3657</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>2860</v>
+        <v>2191</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>203</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>205</v>
+        <v>134</v>
       </c>
       <c r="M11" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N11" s="7">
-        <v>8204</v>
+        <v>5849</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>206</v>
@@ -3340,10 +3340,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D12" s="7">
-        <v>41823</v>
+        <v>41297</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3355,10 +3355,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="I12" s="7">
-        <v>44632</v>
+        <v>37072</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3370,10 +3370,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="N12" s="7">
-        <v>86456</v>
+        <v>78369</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3417,7 +3417,7 @@
         <v>212</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>213</v>
@@ -3471,7 +3471,7 @@
         <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="M14" s="7">
         <v>48</v>
@@ -3556,7 +3556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66DA2408-591B-4142-B73F-D4764D678505}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5481CA1C-8A9C-4B6C-80F1-699542589DA2}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3829,10 +3829,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="D7" s="7">
-        <v>83242</v>
+        <v>46248</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>244</v>
@@ -3844,34 +3844,34 @@
         <v>246</v>
       </c>
       <c r="H7" s="7">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="I7" s="7">
-        <v>70526</v>
+        <v>48927</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>136</v>
+      </c>
+      <c r="N7" s="7">
+        <v>95175</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="M7" s="7">
-        <v>195</v>
-      </c>
-      <c r="N7" s="7">
-        <v>153768</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,49 +3880,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D8" s="7">
-        <v>1438</v>
+        <v>5739</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>8</v>
+      </c>
+      <c r="I8" s="7">
+        <v>5676</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="H8" s="7">
-        <v>5</v>
-      </c>
-      <c r="I8" s="7">
-        <v>3084</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>15</v>
+      </c>
+      <c r="N8" s="7">
+        <v>11415</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="M8" s="7">
-        <v>7</v>
-      </c>
-      <c r="N8" s="7">
-        <v>4522</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,10 +3931,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="D9" s="7">
-        <v>84680</v>
+        <v>51987</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3946,10 +3946,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="I9" s="7">
-        <v>73610</v>
+        <v>54603</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3961,10 +3961,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="N9" s="7">
-        <v>158290</v>
+        <v>106590</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3984,49 +3984,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="D10" s="7">
-        <v>46248</v>
+        <v>83242</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>90</v>
+      </c>
+      <c r="I10" s="7">
+        <v>70526</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="H10" s="7">
-        <v>72</v>
-      </c>
-      <c r="I10" s="7">
-        <v>48927</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>195</v>
+      </c>
+      <c r="N10" s="7">
+        <v>153768</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="M10" s="7">
-        <v>136</v>
-      </c>
-      <c r="N10" s="7">
-        <v>95175</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,28 +4035,28 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>5739</v>
+        <v>1438</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>5</v>
+      </c>
+      <c r="I11" s="7">
+        <v>3084</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="H11" s="7">
-        <v>8</v>
-      </c>
-      <c r="I11" s="7">
-        <v>5676</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>273</v>
@@ -4065,10 +4065,10 @@
         <v>274</v>
       </c>
       <c r="M11" s="7">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N11" s="7">
-        <v>11415</v>
+        <v>4522</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>275</v>
@@ -4086,10 +4086,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="D12" s="7">
-        <v>51987</v>
+        <v>84680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4101,10 +4101,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="I12" s="7">
-        <v>54603</v>
+        <v>73610</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4116,10 +4116,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="N12" s="7">
-        <v>106590</v>
+        <v>158290</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/IP16A05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A05-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14F6621F-2800-4D5F-B481-30C1C4130FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAE33F6B-A93B-433A-8666-8222C29366ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{21A4B52C-BD13-449A-B135-0D3D03B64686}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E7CD49FE-26FB-4524-B16C-DFBE33EC4E42}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="350">
   <si>
     <t>Menores según si ha consumido antibióticos en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -68,865 +68,1027 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido antibióticos en 2012 (Tasa respuesta: 20,72%)</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido antibióticos en 2015 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
   </si>
   <si>
     <t>94,75%</t>
   </si>
   <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido antibióticos en 2012 (Tasa respuesta: 20,72%)</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido antibióticos en 2015 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido antibióticos en 2023 (Tasa respuesta: 24,79%)</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
   </si>
   <si>
     <t>98,38%</t>
   </si>
   <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido antibióticos en 2023 (Tasa respuesta: 24,79%)</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
   </si>
   <si>
     <t>91,26%</t>
   </si>
   <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
   </si>
   <si>
     <t>93,0%</t>
   </si>
   <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
   </si>
 </sst>
 </file>
@@ -937,7 +1099,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1033,39 +1195,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1117,7 +1279,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1228,13 +1390,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1243,6 +1398,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1307,19 +1469,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2DE9F7-4586-4F1D-A301-FCC9E02B7EDC}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1A7CB5-86B3-4436-941E-39BDA783CB21}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1436,10 +1618,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>42269</v>
+        <v>3532</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1451,10 +1633,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>42802</v>
+        <v>1756</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1466,10 +1648,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>131</v>
+        <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>85071</v>
+        <v>5288</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1487,10 +1669,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D5" s="7">
-        <v>4205</v>
+        <v>26123</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1502,10 +1684,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="I5" s="7">
-        <v>5119</v>
+        <v>27279</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1517,10 +1699,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="N5" s="7">
-        <v>9324</v>
+        <v>53402</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1538,10 +1720,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D6" s="7">
-        <v>46474</v>
+        <v>29655</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1553,10 +1735,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="I6" s="7">
-        <v>47921</v>
+        <v>29035</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1568,10 +1750,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="N6" s="7">
-        <v>94395</v>
+        <v>58690</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1591,10 +1773,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>35936</v>
+        <v>7127</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1606,10 +1788,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7">
-        <v>29306</v>
+        <v>6118</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1621,10 +1803,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="N7" s="7">
-        <v>65242</v>
+        <v>13245</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1642,10 +1824,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="D8" s="7">
-        <v>6454</v>
+        <v>43833</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1657,10 +1839,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="I8" s="7">
-        <v>3397</v>
+        <v>37103</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1672,10 +1854,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="N8" s="7">
-        <v>9851</v>
+        <v>80936</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1693,10 +1875,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D9" s="7">
-        <v>42390</v>
+        <v>50960</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1708,10 +1890,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="I9" s="7">
-        <v>32703</v>
+        <v>43221</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1723,10 +1905,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="N9" s="7">
-        <v>75093</v>
+        <v>94181</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1746,10 +1928,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>51032</v>
+        <v>2751</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1761,10 +1943,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>42042</v>
+        <v>1296</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1776,10 +1958,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>137</v>
+        <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>93074</v>
+        <v>4047</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1797,10 +1979,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D11" s="7">
-        <v>4023</v>
+        <v>21115</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1812,10 +1994,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="I11" s="7">
-        <v>2639</v>
+        <v>21211</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1827,10 +2009,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="N11" s="7">
-        <v>6662</v>
+        <v>42326</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1848,10 +2030,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>55055</v>
+        <v>23866</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1863,10 +2045,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="I12" s="7">
-        <v>44681</v>
+        <v>22507</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1878,10 +2060,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c r="N12" s="7">
-        <v>99736</v>
+        <v>46373</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1895,31 +2077,31 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>193</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>129237</v>
+        <v>1272</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>173</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>114150</v>
+        <v>1985</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1931,10 +2113,10 @@
         <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>366</v>
+        <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>243387</v>
+        <v>3257</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -1952,10 +2134,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D14" s="7">
-        <v>14682</v>
+        <v>38166</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1964,37 +2146,37 @@
         <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="7">
+        <v>42</v>
+      </c>
+      <c r="I14" s="7">
+        <v>28558</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="7">
-        <v>17</v>
-      </c>
-      <c r="I14" s="7">
-        <v>11155</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>99</v>
+      </c>
+      <c r="N14" s="7">
+        <v>66724</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="M14" s="7">
-        <v>39</v>
-      </c>
-      <c r="N14" s="7">
-        <v>25837</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2003,55 +2185,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>59</v>
+      </c>
+      <c r="D15" s="7">
+        <v>39438</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>45</v>
+      </c>
+      <c r="I15" s="7">
+        <v>30543</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>104</v>
+      </c>
+      <c r="N15" s="7">
+        <v>69981</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>22</v>
+      </c>
+      <c r="D16" s="7">
+        <v>14682</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="7">
+        <v>17</v>
+      </c>
+      <c r="I16" s="7">
+        <v>11155</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M16" s="7">
+        <v>39</v>
+      </c>
+      <c r="N16" s="7">
+        <v>25837</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>193</v>
+      </c>
+      <c r="D17" s="7">
+        <v>129237</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="7">
+        <v>173</v>
+      </c>
+      <c r="I17" s="7">
+        <v>114150</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M17" s="7">
+        <v>366</v>
+      </c>
+      <c r="N17" s="7">
+        <v>243387</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>215</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>143919</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>190</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>125305</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>405</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>269224</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2064,8 +2407,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA395BFA-1CD9-4F85-ACFC-C36D09ABE2DE}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0667FEED-4325-4E53-AD06-C8C74F37431C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2081,7 +2424,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2182,49 +2525,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>53835</v>
+        <v>4865</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="I4" s="7">
-        <v>48884</v>
+        <v>6520</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="N4" s="7">
-        <v>102720</v>
+        <v>11385</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2233,49 +2576,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="D5" s="7">
-        <v>9828</v>
+        <v>33561</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="H5" s="7">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I5" s="7">
-        <v>10698</v>
+        <v>29977</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="M5" s="7">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="N5" s="7">
-        <v>20526</v>
+        <v>63538</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2284,10 +2627,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="D6" s="7">
-        <v>63663</v>
+        <v>38426</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2299,10 +2642,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="I6" s="7">
-        <v>59582</v>
+        <v>36497</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2314,10 +2657,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>180</v>
+        <v>109</v>
       </c>
       <c r="N6" s="7">
-        <v>123246</v>
+        <v>74923</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2337,49 +2680,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7">
-        <v>49112</v>
+        <v>11055</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="H7" s="7">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="I7" s="7">
-        <v>36559</v>
+        <v>10538</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M7" s="7">
+        <v>29</v>
+      </c>
+      <c r="N7" s="7">
+        <v>21593</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M7" s="7">
-        <v>118</v>
-      </c>
-      <c r="N7" s="7">
-        <v>85671</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2388,49 +2731,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="D8" s="7">
-        <v>8264</v>
+        <v>55702</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="H8" s="7">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I8" s="7">
-        <v>9208</v>
+        <v>43627</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M8" s="7">
+        <v>141</v>
+      </c>
+      <c r="N8" s="7">
+        <v>99329</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="M8" s="7">
-        <v>23</v>
-      </c>
-      <c r="N8" s="7">
-        <v>17472</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="P8" s="7" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,10 +2782,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D9" s="7">
-        <v>57376</v>
+        <v>66757</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2454,10 +2797,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="I9" s="7">
-        <v>45767</v>
+        <v>54165</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2469,10 +2812,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="N9" s="7">
-        <v>103143</v>
+        <v>120922</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2492,49 +2835,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>34555</v>
+        <v>3269</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="H10" s="7">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>35883</v>
+        <v>5039</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="M10" s="7">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="N10" s="7">
-        <v>70438</v>
+        <v>8308</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2543,49 +2886,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D11" s="7">
-        <v>2372</v>
+        <v>24646</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="H11" s="7">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="I11" s="7">
-        <v>6469</v>
+        <v>24831</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="M11" s="7">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="N11" s="7">
-        <v>8841</v>
+        <v>49477</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2594,10 +2937,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D12" s="7">
-        <v>36927</v>
+        <v>27915</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2609,10 +2952,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="I12" s="7">
-        <v>42352</v>
+        <v>29870</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2624,10 +2967,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="N12" s="7">
-        <v>79279</v>
+        <v>57785</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2641,55 +2984,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>194</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>137501</v>
+        <v>1275</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H13" s="7">
-        <v>176</v>
+        <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>121326</v>
+        <v>4278</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="M13" s="7">
-        <v>370</v>
+        <v>8</v>
       </c>
       <c r="N13" s="7">
-        <v>258827</v>
+        <v>5553</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2698,49 +3041,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D14" s="7">
-        <v>20465</v>
+        <v>23593</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="H14" s="7">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I14" s="7">
-        <v>26375</v>
+        <v>22891</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="M14" s="7">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N14" s="7">
-        <v>46840</v>
+        <v>46484</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2749,55 +3092,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>36</v>
+      </c>
+      <c r="D15" s="7">
+        <v>24868</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>39</v>
+      </c>
+      <c r="I15" s="7">
+        <v>27169</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>75</v>
+      </c>
+      <c r="N15" s="7">
+        <v>52037</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>28</v>
+      </c>
+      <c r="D16" s="7">
+        <v>20465</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H16" s="7">
+        <v>37</v>
+      </c>
+      <c r="I16" s="7">
+        <v>26375</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="M16" s="7">
+        <v>65</v>
+      </c>
+      <c r="N16" s="7">
+        <v>46840</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>194</v>
+      </c>
+      <c r="D17" s="7">
+        <v>137501</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H17" s="7">
+        <v>176</v>
+      </c>
+      <c r="I17" s="7">
+        <v>121326</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="M17" s="7">
+        <v>370</v>
+      </c>
+      <c r="N17" s="7">
+        <v>258827</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>222</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>157966</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>213</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>147701</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>435</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>305667</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2810,8 +3314,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E243B11-73E4-4121-B02C-B2CCE900181D}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF9FE00-926C-4337-894B-5B59778C1046}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2827,7 +3331,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2928,49 +3432,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>33100</v>
+        <v>4616</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="H4" s="7">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>35912</v>
+        <v>5359</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="M4" s="7">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="N4" s="7">
-        <v>69012</v>
+        <v>9974</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2979,49 +3483,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>7056</v>
+        <v>19360</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="H5" s="7">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I5" s="7">
-        <v>9844</v>
+        <v>21674</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="M5" s="7">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="N5" s="7">
-        <v>16900</v>
+        <v>41035</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,10 +3534,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="D6" s="7">
-        <v>40156</v>
+        <v>23976</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3045,10 +3549,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="I6" s="7">
-        <v>45756</v>
+        <v>27033</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3060,10 +3564,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="N6" s="7">
-        <v>85912</v>
+        <v>51009</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3083,49 +3587,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>36479</v>
+        <v>5367</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="H7" s="7">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>41772</v>
+        <v>6217</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="M7" s="7">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="N7" s="7">
-        <v>78252</v>
+        <v>11585</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>91</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,49 +3638,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="D8" s="7">
-        <v>5344</v>
+        <v>37729</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="H8" s="7">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="I8" s="7">
-        <v>2860</v>
+        <v>36022</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="M8" s="7">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="N8" s="7">
-        <v>8204</v>
+        <v>73750</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>192</v>
+        <v>99</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>193</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,10 +3689,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D9" s="7">
-        <v>41823</v>
+        <v>43096</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3200,10 +3704,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I9" s="7">
-        <v>44632</v>
+        <v>42239</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3215,10 +3719,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N9" s="7">
-        <v>86456</v>
+        <v>85335</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3238,49 +3742,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>37640</v>
+        <v>4561</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="H10" s="7">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>34881</v>
+        <v>1745</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>222</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>125</v>
+        <v>223</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="M10" s="7">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>72520</v>
+        <v>6306</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3289,49 +3793,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="D11" s="7">
-        <v>3657</v>
+        <v>28885</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="I11" s="7">
-        <v>2191</v>
+        <v>34379</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>231</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>134</v>
+        <v>233</v>
       </c>
       <c r="M11" s="7">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="N11" s="7">
-        <v>5849</v>
+        <v>63264</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,10 +3844,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D12" s="7">
-        <v>41297</v>
+        <v>33446</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3358,7 +3862,7 @@
         <v>52</v>
       </c>
       <c r="I12" s="7">
-        <v>37072</v>
+        <v>36124</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3370,10 +3874,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="N12" s="7">
-        <v>78369</v>
+        <v>69570</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3387,55 +3891,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>155</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>107218</v>
+        <v>1514</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>210</v>
+        <v>55</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="H13" s="7">
-        <v>168</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>112566</v>
+        <v>1574</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="M13" s="7">
-        <v>323</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>219784</v>
+        <v>3088</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,49 +3948,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D14" s="7">
-        <v>16058</v>
+        <v>21244</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>219</v>
+        <v>65</v>
       </c>
       <c r="H14" s="7">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I14" s="7">
-        <v>14895</v>
+        <v>20491</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="M14" s="7">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="N14" s="7">
-        <v>30953</v>
+        <v>41735</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,55 +3999,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>31</v>
+      </c>
+      <c r="D15" s="7">
+        <v>22758</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>31</v>
+      </c>
+      <c r="I15" s="7">
+        <v>22065</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>62</v>
+      </c>
+      <c r="N15" s="7">
+        <v>44823</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>24</v>
+      </c>
+      <c r="D16" s="7">
+        <v>16058</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H16" s="7">
+        <v>24</v>
+      </c>
+      <c r="I16" s="7">
+        <v>14895</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="M16" s="7">
+        <v>48</v>
+      </c>
+      <c r="N16" s="7">
+        <v>30953</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>155</v>
+      </c>
+      <c r="D17" s="7">
+        <v>107218</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H17" s="7">
+        <v>168</v>
+      </c>
+      <c r="I17" s="7">
+        <v>112566</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="M17" s="7">
+        <v>323</v>
+      </c>
+      <c r="N17" s="7">
+        <v>219784</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>179</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>123276</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>192</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>127461</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>371</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>250737</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3556,8 +4221,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5481CA1C-8A9C-4B6C-80F1-699542589DA2}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6EB7543-EC7A-4E51-B302-CC5C2E8CFFC2}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3573,7 +4238,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>269</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3674,49 +4339,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>33659</v>
+        <v>387</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>226</v>
+        <v>270</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>227</v>
+        <v>55</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>228</v>
+        <v>271</v>
       </c>
       <c r="H4" s="7">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>21459</v>
+        <v>3352</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>230</v>
+        <v>273</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="M4" s="7">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>55119</v>
+        <v>3738</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>232</v>
+        <v>275</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>233</v>
+        <v>276</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>234</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,49 +4390,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="D5" s="7">
-        <v>2211</v>
+        <v>20548</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>235</v>
+        <v>278</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>236</v>
+        <v>279</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>237</v>
+        <v>65</v>
       </c>
       <c r="H5" s="7">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="I5" s="7">
-        <v>4739</v>
+        <v>12590</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>238</v>
+        <v>280</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>239</v>
+        <v>281</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>240</v>
+        <v>282</v>
       </c>
       <c r="M5" s="7">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="N5" s="7">
-        <v>6949</v>
+        <v>33139</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>241</v>
+        <v>283</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>242</v>
+        <v>284</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>243</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,40 +4441,40 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>42</v>
+      </c>
+      <c r="D6" s="7">
+        <v>20935</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>30</v>
+      </c>
+      <c r="I6" s="7">
+        <v>15942</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
         <v>72</v>
       </c>
-      <c r="D6" s="7">
-        <v>35870</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>51</v>
-      </c>
-      <c r="I6" s="7">
-        <v>26198</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="7">
-        <v>123</v>
-      </c>
       <c r="N6" s="7">
-        <v>62068</v>
+        <v>36877</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3829,49 +4494,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>46248</v>
+        <v>5449</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>244</v>
+        <v>286</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>245</v>
+        <v>287</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>246</v>
+        <v>288</v>
       </c>
       <c r="H7" s="7">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7">
-        <v>48927</v>
+        <v>5694</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>289</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>247</v>
+        <v>290</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>248</v>
+        <v>291</v>
       </c>
       <c r="M7" s="7">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="N7" s="7">
-        <v>95175</v>
+        <v>11143</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>249</v>
+        <v>292</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>250</v>
+        <v>293</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>251</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,49 +4545,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="D8" s="7">
-        <v>5739</v>
+        <v>40553</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>252</v>
+        <v>295</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>254</v>
+        <v>297</v>
       </c>
       <c r="H8" s="7">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="I8" s="7">
-        <v>5676</v>
+        <v>39050</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>298</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>255</v>
+        <v>299</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="M8" s="7">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="N8" s="7">
-        <v>11415</v>
+        <v>79603</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,10 +4596,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D9" s="7">
-        <v>51987</v>
+        <v>46002</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3946,10 +4611,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I9" s="7">
-        <v>54603</v>
+        <v>44744</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3961,10 +4626,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="N9" s="7">
-        <v>106590</v>
+        <v>90746</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3984,49 +4649,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>83242</v>
+        <v>2938</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>260</v>
+        <v>304</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>261</v>
+        <v>305</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="H10" s="7">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>70526</v>
+        <v>3144</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="M10" s="7">
-        <v>195</v>
+        <v>8</v>
       </c>
       <c r="N10" s="7">
-        <v>153768</v>
+        <v>6083</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,49 +4700,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="D11" s="7">
-        <v>1438</v>
+        <v>40645</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>270</v>
+        <v>314</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>271</v>
+        <v>315</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="I11" s="7">
-        <v>3084</v>
+        <v>33759</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>272</v>
+        <v>316</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>273</v>
+        <v>317</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>274</v>
+        <v>318</v>
       </c>
       <c r="M11" s="7">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="N11" s="7">
-        <v>4522</v>
+        <v>74403</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>275</v>
+        <v>319</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>276</v>
+        <v>320</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>277</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,10 +4751,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="D12" s="7">
-        <v>84680</v>
+        <v>43583</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4101,10 +4766,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="I12" s="7">
-        <v>73610</v>
+        <v>36903</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4116,10 +4781,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>202</v>
+        <v>109</v>
       </c>
       <c r="N12" s="7">
-        <v>158290</v>
+        <v>80486</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4133,55 +4798,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>237</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>163149</v>
+        <v>614</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>279</v>
+        <v>55</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="H13" s="7">
-        <v>205</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>140914</v>
+        <v>1308</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>281</v>
+        <v>323</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>282</v>
+        <v>55</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="M13" s="7">
-        <v>442</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>304062</v>
+        <v>1922</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,49 +4855,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="D14" s="7">
-        <v>9388</v>
+        <v>61402</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>287</v>
+        <v>328</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>288</v>
+        <v>236</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>65</v>
       </c>
       <c r="H14" s="7">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="I14" s="7">
-        <v>13498</v>
+        <v>55514</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>292</v>
+        <v>65</v>
       </c>
       <c r="M14" s="7">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="N14" s="7">
-        <v>22886</v>
+        <v>116917</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,55 +4906,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>77</v>
+      </c>
+      <c r="D15" s="7">
+        <v>62016</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>71</v>
+      </c>
+      <c r="I15" s="7">
+        <v>56822</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>148</v>
+      </c>
+      <c r="N15" s="7">
+        <v>118839</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>13</v>
+      </c>
+      <c r="D16" s="7">
+        <v>9388</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H16" s="7">
+        <v>21</v>
+      </c>
+      <c r="I16" s="7">
+        <v>13498</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="M16" s="7">
+        <v>34</v>
+      </c>
+      <c r="N16" s="7">
+        <v>22886</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>237</v>
+      </c>
+      <c r="D17" s="7">
+        <v>163149</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H17" s="7">
+        <v>205</v>
+      </c>
+      <c r="I17" s="7">
+        <v>140914</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="M17" s="7">
+        <v>442</v>
+      </c>
+      <c r="N17" s="7">
+        <v>304062</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>250</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>172537</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>226</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>154412</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>476</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>326948</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP16A05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A05-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAE33F6B-A93B-433A-8666-8222C29366ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{018BD783-981A-4691-8879-A44CEE945F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E7CD49FE-26FB-4524-B16C-DFBE33EC4E42}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{49C5FF43-7264-4465-B51C-668590E9B5E5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="352">
   <si>
     <t>Menores según si ha consumido antibióticos en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>11,91%</t>
   </si>
   <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
   </si>
   <si>
     <t>6,05%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
   </si>
   <si>
     <t>9,01%</t>
   </si>
   <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>88,09%</t>
   </si>
   <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
   </si>
   <si>
     <t>93,95%</t>
   </si>
   <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
   </si>
   <si>
     <t>90,99%</t>
   </si>
   <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>13,99%</t>
   </si>
   <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
   </si>
   <si>
     <t>14,16%</t>
   </si>
   <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
   </si>
   <si>
     <t>14,06%</t>
   </si>
   <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
   </si>
   <si>
     <t>86,01%</t>
   </si>
   <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
   </si>
   <si>
     <t>85,84%</t>
   </si>
   <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
   </si>
   <si>
     <t>85,94%</t>
   </si>
   <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -197,898 +197,904 @@
     <t>11,53%</t>
   </si>
   <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
     <t>3,02%</t>
   </si>
   <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
   </si>
   <si>
     <t>17,29%</t>
   </si>
   <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
   </si>
   <si>
     <t>82,71%</t>
   </si>
   <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
+    <t>98,03%</t>
   </si>
   <si>
     <t>95,35%</t>
   </si>
   <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
+    <t>89,9%</t>
   </si>
   <si>
     <t>10,2%</t>
   </si>
   <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
   </si>
   <si>
     <t>8,9%</t>
   </si>
   <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido antibióticos en 2012 (Tasa respuesta: 20,72%)</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido antibióticos en 2016 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido antibióticos en 2023 (Tasa respuesta: 24,79%)</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
     <t>5,44%</t>
   </si>
   <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
   </si>
   <si>
     <t>94,56%</t>
   </si>
   <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido antibióticos en 2012 (Tasa respuesta: 20,72%)</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido antibióticos en 2015 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido antibióticos en 2023 (Tasa respuesta: 24,79%)</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
   </si>
   <si>
     <t>91,26%</t>
   </si>
   <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
   </si>
   <si>
     <t>93,0%</t>
   </si>
   <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
   </si>
 </sst>
 </file>
@@ -1500,7 +1506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1A7CB5-86B3-4436-941E-39BDA783CB21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983E9D31-0FF3-4508-B172-67E58DE01598}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2122,10 +2128,10 @@
         <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2140,10 +2146,10 @@
         <v>38166</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>65</v>
@@ -2155,13 +2161,13 @@
         <v>28558</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>99</v>
@@ -2170,13 +2176,13 @@
         <v>66724</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2244,13 +2250,13 @@
         <v>14682</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -2259,13 +2265,13 @@
         <v>11155</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>39</v>
@@ -2274,13 +2280,13 @@
         <v>25837</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2295,13 +2301,13 @@
         <v>129237</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>173</v>
@@ -2310,13 +2316,13 @@
         <v>114150</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>366</v>
@@ -2325,13 +2331,13 @@
         <v>243387</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2387,7 +2393,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2407,7 +2413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0667FEED-4325-4E53-AD06-C8C74F37431C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09FFC826-72D1-402C-A1D4-4647381B9BC1}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2424,7 +2430,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2531,13 +2537,13 @@
         <v>4865</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -2546,13 +2552,13 @@
         <v>6520</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -2561,13 +2567,13 @@
         <v>11385</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2582,13 +2588,13 @@
         <v>33561</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H5" s="7">
         <v>45</v>
@@ -2597,13 +2603,13 @@
         <v>29977</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M5" s="7">
         <v>92</v>
@@ -2612,13 +2618,13 @@
         <v>63538</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2704,10 +2710,10 @@
         <v>125</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M7" s="7">
         <v>29</v>
@@ -2716,13 +2722,13 @@
         <v>21593</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2737,13 +2743,13 @@
         <v>55702</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H8" s="7">
         <v>63</v>
@@ -2752,13 +2758,13 @@
         <v>43627</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>134</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="M8" s="7">
         <v>141</v>
@@ -2767,13 +2773,13 @@
         <v>99329</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2841,13 +2847,13 @@
         <v>3269</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -2856,13 +2862,13 @@
         <v>5039</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -2871,13 +2877,13 @@
         <v>8308</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2892,13 +2898,13 @@
         <v>24646</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H11" s="7">
         <v>35</v>
@@ -2907,13 +2913,13 @@
         <v>24831</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M11" s="7">
         <v>70</v>
@@ -2922,13 +2928,13 @@
         <v>49477</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,13 +3002,13 @@
         <v>1275</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -3011,13 +3017,13 @@
         <v>4278</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -3026,13 +3032,13 @@
         <v>5553</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3047,10 +3053,10 @@
         <v>23593</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>65</v>
@@ -3154,10 +3160,10 @@
         <v>170</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H16" s="7">
         <v>37</v>
@@ -3166,13 +3172,13 @@
         <v>26375</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M16" s="7">
         <v>65</v>
@@ -3181,13 +3187,13 @@
         <v>46840</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3202,13 +3208,13 @@
         <v>137501</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>179</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>180</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>176</v>
@@ -3217,13 +3223,13 @@
         <v>121326</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M17" s="7">
         <v>370</v>
@@ -3232,13 +3238,13 @@
         <v>258827</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3294,7 +3300,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3314,7 +3320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF9FE00-926C-4337-894B-5B59778C1046}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADC3E1E-5990-4F7A-B8E2-B225428F4796}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3331,7 +3337,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3438,13 +3444,13 @@
         <v>4616</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -3453,13 +3459,13 @@
         <v>5359</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -3468,13 +3474,13 @@
         <v>9974</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,13 +3495,13 @@
         <v>19360</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H5" s="7">
         <v>35</v>
@@ -3504,13 +3510,13 @@
         <v>21674</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M5" s="7">
         <v>65</v>
@@ -3519,13 +3525,13 @@
         <v>41035</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,13 +3599,13 @@
         <v>5367</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -3608,13 +3614,13 @@
         <v>6217</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>210</v>
+        <v>124</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -3623,13 +3629,13 @@
         <v>11585</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3644,13 +3650,13 @@
         <v>37729</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H8" s="7">
         <v>55</v>
@@ -3659,13 +3665,13 @@
         <v>36022</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M8" s="7">
         <v>110</v>
@@ -3674,10 +3680,10 @@
         <v>73750</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>99</v>
+        <v>216</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>217</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>218</v>
@@ -3763,13 +3769,13 @@
         <v>1745</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -3778,13 +3784,13 @@
         <v>6306</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,13 +3805,13 @@
         <v>28885</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H11" s="7">
         <v>49</v>
@@ -3814,13 +3820,13 @@
         <v>34379</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M11" s="7">
         <v>90</v>
@@ -3829,13 +3835,13 @@
         <v>63264</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,13 +3909,13 @@
         <v>1514</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3918,13 +3924,13 @@
         <v>1574</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -3933,13 +3939,13 @@
         <v>3088</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,10 +3960,10 @@
         <v>21244</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>65</v>
@@ -3969,10 +3975,10 @@
         <v>20491</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>65</v>
@@ -3984,13 +3990,13 @@
         <v>41735</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,13 +4064,13 @@
         <v>16058</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -4073,13 +4079,13 @@
         <v>14895</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -4088,13 +4094,13 @@
         <v>30953</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,13 +4115,13 @@
         <v>107218</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H17" s="7">
         <v>168</v>
@@ -4124,13 +4130,13 @@
         <v>112566</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M17" s="7">
         <v>323</v>
@@ -4139,13 +4145,13 @@
         <v>219784</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,7 +4207,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -4221,7 +4227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6EB7543-EC7A-4E51-B302-CC5C2E8CFFC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6542682B-59CE-48DA-BFAC-8F61AD1D1A73}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4238,7 +4244,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4345,13 +4351,13 @@
         <v>387</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -4360,13 +4366,13 @@
         <v>3352</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -4375,13 +4381,13 @@
         <v>3738</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,10 +4402,10 @@
         <v>20548</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>65</v>
@@ -4411,13 +4417,13 @@
         <v>12590</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M5" s="7">
         <v>66</v>
@@ -4426,13 +4432,13 @@
         <v>33139</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,13 +4506,13 @@
         <v>5449</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4515,13 +4521,13 @@
         <v>5694</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -4530,13 +4536,13 @@
         <v>11143</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,13 +4557,13 @@
         <v>40553</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="H8" s="7">
         <v>63</v>
@@ -4566,13 +4572,13 @@
         <v>39050</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M8" s="7">
         <v>130</v>
@@ -4581,13 +4587,13 @@
         <v>79603</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,13 +4661,13 @@
         <v>2938</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -4670,13 +4676,13 @@
         <v>3144</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -4685,13 +4691,13 @@
         <v>6083</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,13 +4712,13 @@
         <v>40645</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="H11" s="7">
         <v>48</v>
@@ -4721,13 +4727,13 @@
         <v>33759</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="M11" s="7">
         <v>101</v>
@@ -4736,13 +4742,13 @@
         <v>74403</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,13 +4816,13 @@
         <v>614</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>226</v>
+        <v>321</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -4825,13 +4831,13 @@
         <v>1308</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -4840,13 +4846,13 @@
         <v>1922</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,10 +4867,10 @@
         <v>61402</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>65</v>
@@ -4965,13 +4971,13 @@
         <v>9388</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>90</v>
+        <v>334</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -4980,13 +4986,13 @@
         <v>13498</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -4995,13 +5001,13 @@
         <v>22886</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,13 +5022,13 @@
         <v>163149</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>100</v>
+        <v>343</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H17" s="7">
         <v>205</v>
@@ -5031,13 +5037,13 @@
         <v>140914</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M17" s="7">
         <v>442</v>
@@ -5046,13 +5052,13 @@
         <v>304062</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5108,7 +5114,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16A05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A05-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{018BD783-981A-4691-8879-A44CEE945F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43E367FE-03FC-4601-990E-44D09FBDA8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{49C5FF43-7264-4465-B51C-668590E9B5E5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1D4FFA97-CF98-4753-A7D4-725906220C62}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -44,10 +44,10 @@
     <t>Menores según si ha consumido antibióticos en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,61 +74,61 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
     <t>11,91%</t>
   </si>
   <si>
     <t>4,43%</t>
   </si>
   <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
+    <t>26,18%</t>
   </si>
   <si>
     <t>9,01%</t>
   </si>
   <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
     <t>88,09%</t>
   </si>
   <si>
-    <t>73,56%</t>
+    <t>73,82%</t>
   </si>
   <si>
     <t>95,57%</t>
   </si>
   <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
     <t>90,99%</t>
   </si>
   <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,964 +137,964 @@
     <t>3-7</t>
   </si>
   <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
     <t>13,99%</t>
   </si>
   <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido antibióticos en 2012 (Tasa respuesta: 20,72%)</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido antibióticos en 2016 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido antibióticos en 2023 (Tasa respuesta: 24,79%)</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
   </si>
   <si>
     <t>7,39%</t>
   </si>
   <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
   </si>
   <si>
     <t>92,61%</t>
   </si>
   <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
     <t>86,3%</t>
   </si>
   <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido antibióticos en 2012 (Tasa respuesta: 20,72%)</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido antibióticos en 2016 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
   </si>
   <si>
     <t>10,42%</t>
   </si>
   <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
   </si>
   <si>
     <t>89,58%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido antibióticos en 2023 (Tasa respuesta: 24,79%)</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
   </si>
 </sst>
 </file>
@@ -1506,7 +1506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983E9D31-0FF3-4508-B172-67E58DE01598}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02E7CABC-9503-4EF9-8DAC-A82523DF08DF}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1624,10 +1624,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>3532</v>
+        <v>1756</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1639,10 +1639,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>1756</v>
+        <v>3532</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1675,10 +1675,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D5" s="7">
-        <v>26123</v>
+        <v>27279</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1690,10 +1690,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I5" s="7">
-        <v>27279</v>
+        <v>26123</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1726,25 +1726,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>46</v>
+      </c>
+      <c r="D6" s="7">
+        <v>29035</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>44</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>29655</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>46</v>
-      </c>
-      <c r="I6" s="7">
-        <v>29035</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1779,10 +1779,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>7127</v>
+        <v>6118</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1794,10 +1794,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I7" s="7">
-        <v>6118</v>
+        <v>7127</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1830,10 +1830,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D8" s="7">
-        <v>43833</v>
+        <v>37103</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1845,10 +1845,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="I8" s="7">
-        <v>37103</v>
+        <v>43833</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1881,25 +1881,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>66</v>
+      </c>
+      <c r="D9" s="7">
+        <v>43221</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>76</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>50960</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>66</v>
-      </c>
-      <c r="I9" s="7">
-        <v>43221</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1934,10 +1934,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>2751</v>
+        <v>1296</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1949,10 +1949,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>1296</v>
+        <v>2751</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1985,10 +1985,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="7">
-        <v>21115</v>
+        <v>21211</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2000,10 +2000,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I11" s="7">
-        <v>21211</v>
+        <v>21115</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2036,25 +2036,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>33</v>
+      </c>
+      <c r="D12" s="7">
+        <v>22507</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>36</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>23866</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>33</v>
-      </c>
-      <c r="I12" s="7">
-        <v>22507</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2089,31 +2089,31 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>1272</v>
+        <v>1985</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>1985</v>
+        <v>1272</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>74</v>
@@ -2128,10 +2128,10 @@
         <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2140,34 +2140,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>42</v>
+      </c>
+      <c r="D14" s="7">
+        <v>28558</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="7">
         <v>57</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>38166</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="7">
-        <v>42</v>
-      </c>
-      <c r="I14" s="7">
-        <v>28558</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="M14" s="7">
         <v>99</v>
@@ -2176,13 +2176,13 @@
         <v>66724</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2191,25 +2191,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>45</v>
+      </c>
+      <c r="D15" s="7">
+        <v>30543</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>59</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>39438</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>45</v>
-      </c>
-      <c r="I15" s="7">
-        <v>30543</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2244,34 +2244,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>17</v>
+      </c>
+      <c r="D16" s="7">
+        <v>11155</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="7">
         <v>22</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>14682</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H16" s="7">
-        <v>17</v>
-      </c>
-      <c r="I16" s="7">
-        <v>11155</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>39</v>
@@ -2280,13 +2280,13 @@
         <v>25837</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2295,34 +2295,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>173</v>
+      </c>
+      <c r="D17" s="7">
+        <v>114150</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="7">
         <v>193</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>129237</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H17" s="7">
-        <v>173</v>
-      </c>
-      <c r="I17" s="7">
-        <v>114150</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>366</v>
@@ -2331,13 +2331,13 @@
         <v>243387</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2346,25 +2346,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>190</v>
+      </c>
+      <c r="D18" s="7">
+        <v>125305</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>215</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>143919</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>190</v>
-      </c>
-      <c r="I18" s="7">
-        <v>125305</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2413,7 +2413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09FFC826-72D1-402C-A1D4-4647381B9BC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E942840A-C399-4345-9A5D-95262BCC6853}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2430,7 +2430,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2531,34 +2531,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7">
+        <v>6520</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="7">
         <v>7</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>4865</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H4" s="7">
-        <v>10</v>
-      </c>
-      <c r="I4" s="7">
-        <v>6520</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -2567,13 +2567,13 @@
         <v>11385</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2582,25 +2582,25 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>45</v>
+      </c>
+      <c r="D5" s="7">
+        <v>29977</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="7">
         <v>47</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>33561</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H5" s="7">
-        <v>45</v>
-      </c>
-      <c r="I5" s="7">
-        <v>29977</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>116</v>
@@ -2633,25 +2633,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>55</v>
+      </c>
+      <c r="D6" s="7">
+        <v>36497</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>54</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>38426</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>55</v>
-      </c>
-      <c r="I6" s="7">
-        <v>36497</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2686,10 +2686,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="7">
-        <v>11055</v>
+        <v>10538</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>122</v>
@@ -2701,19 +2701,19 @@
         <v>124</v>
       </c>
       <c r="H7" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" s="7">
-        <v>10538</v>
+        <v>11055</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>125</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M7" s="7">
         <v>29</v>
@@ -2722,13 +2722,13 @@
         <v>21593</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2737,34 +2737,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>63</v>
+      </c>
+      <c r="D8" s="7">
+        <v>43627</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="7">
         <v>78</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>55702</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H8" s="7">
-        <v>63</v>
-      </c>
-      <c r="I8" s="7">
-        <v>43627</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="M8" s="7">
         <v>141</v>
@@ -2773,13 +2773,13 @@
         <v>99329</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,25 +2788,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>77</v>
+      </c>
+      <c r="D9" s="7">
+        <v>54165</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>93</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>66757</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>77</v>
-      </c>
-      <c r="I9" s="7">
-        <v>54165</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2841,34 +2841,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>7</v>
+      </c>
+      <c r="D10" s="7">
+        <v>5039</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H10" s="7">
         <v>4</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>3269</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H10" s="7">
-        <v>7</v>
-      </c>
-      <c r="I10" s="7">
-        <v>5039</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -2877,13 +2877,13 @@
         <v>8308</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,31 +2895,31 @@
         <v>35</v>
       </c>
       <c r="D11" s="7">
-        <v>24646</v>
+        <v>24831</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H11" s="7">
         <v>35</v>
       </c>
       <c r="I11" s="7">
-        <v>24831</v>
+        <v>24646</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M11" s="7">
         <v>70</v>
@@ -2928,13 +2928,13 @@
         <v>49477</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2943,25 +2943,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>42</v>
+      </c>
+      <c r="D12" s="7">
+        <v>29870</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>39</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>27915</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>42</v>
-      </c>
-      <c r="I12" s="7">
-        <v>29870</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2996,34 +2996,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>6</v>
+      </c>
+      <c r="D13" s="7">
+        <v>4278</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" s="7">
         <v>2</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>1275</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H13" s="7">
-        <v>6</v>
-      </c>
-      <c r="I13" s="7">
-        <v>4278</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>157</v>
+        <v>52</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -3032,13 +3032,13 @@
         <v>5553</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3047,34 +3047,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>33</v>
+      </c>
+      <c r="D14" s="7">
+        <v>22891</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H14" s="7">
         <v>34</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>23593</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="7">
-        <v>33</v>
-      </c>
-      <c r="I14" s="7">
-        <v>22891</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c r="M14" s="7">
         <v>67</v>
@@ -3083,13 +3083,13 @@
         <v>46484</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,25 +3098,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>39</v>
+      </c>
+      <c r="D15" s="7">
+        <v>27169</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>36</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>24868</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>39</v>
-      </c>
-      <c r="I15" s="7">
-        <v>27169</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3151,34 +3151,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>37</v>
+      </c>
+      <c r="D16" s="7">
+        <v>26375</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H16" s="7">
         <v>28</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>20465</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H16" s="7">
-        <v>37</v>
-      </c>
-      <c r="I16" s="7">
-        <v>26375</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M16" s="7">
         <v>65</v>
@@ -3187,13 +3187,13 @@
         <v>46840</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3202,34 +3202,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>176</v>
+      </c>
+      <c r="D17" s="7">
+        <v>121326</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H17" s="7">
         <v>194</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>137501</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H17" s="7">
-        <v>176</v>
-      </c>
-      <c r="I17" s="7">
-        <v>121326</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>182</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M17" s="7">
         <v>370</v>
@@ -3238,13 +3238,13 @@
         <v>258827</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,25 +3253,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>213</v>
+      </c>
+      <c r="D18" s="7">
+        <v>147701</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>222</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>157966</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>213</v>
-      </c>
-      <c r="I18" s="7">
-        <v>147701</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3300,7 +3300,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3320,7 +3320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADC3E1E-5990-4F7A-B8E2-B225428F4796}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50102CA-E2FD-4772-984F-F01F3C0A4320}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3337,7 +3337,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3438,34 +3438,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5359</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H4" s="7">
         <v>8</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>4616</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="H4" s="7">
-        <v>9</v>
-      </c>
-      <c r="I4" s="7">
-        <v>5359</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -3474,13 +3474,13 @@
         <v>9974</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,34 +3489,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D5" s="7">
+        <v>21674</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H5" s="7">
+        <v>30</v>
+      </c>
+      <c r="I5" s="7">
         <v>19360</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="H5" s="7">
-        <v>35</v>
-      </c>
-      <c r="I5" s="7">
-        <v>21674</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M5" s="7">
         <v>65</v>
@@ -3525,13 +3525,13 @@
         <v>41035</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3540,25 +3540,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>44</v>
+      </c>
+      <c r="D6" s="7">
+        <v>27033</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>38</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>23976</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>44</v>
-      </c>
-      <c r="I6" s="7">
-        <v>27033</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3593,34 +3593,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7">
+        <v>6217</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H7" s="7">
         <v>8</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>5367</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H7" s="7">
-        <v>10</v>
-      </c>
-      <c r="I7" s="7">
-        <v>6217</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>124</v>
+        <v>212</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -3629,13 +3629,13 @@
         <v>11585</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,31 +3647,31 @@
         <v>55</v>
       </c>
       <c r="D8" s="7">
-        <v>37729</v>
+        <v>36022</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="H8" s="7">
         <v>55</v>
       </c>
       <c r="I8" s="7">
-        <v>36022</v>
+        <v>37729</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M8" s="7">
         <v>110</v>
@@ -3680,13 +3680,13 @@
         <v>73750</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3695,25 +3695,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>65</v>
+      </c>
+      <c r="D9" s="7">
+        <v>42239</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>63</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>43096</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>65</v>
-      </c>
-      <c r="I9" s="7">
-        <v>42239</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3748,34 +3748,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1745</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H10" s="7">
         <v>6</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>4561</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H10" s="7">
-        <v>3</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1745</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -3784,13 +3784,13 @@
         <v>6306</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,34 +3799,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>49</v>
+      </c>
+      <c r="D11" s="7">
+        <v>34379</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H11" s="7">
         <v>41</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>28885</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="H11" s="7">
-        <v>49</v>
-      </c>
-      <c r="I11" s="7">
-        <v>34379</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="M11" s="7">
         <v>90</v>
@@ -3835,13 +3835,13 @@
         <v>63264</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3850,25 +3850,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>52</v>
+      </c>
+      <c r="D12" s="7">
+        <v>36124</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>47</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>33446</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>52</v>
-      </c>
-      <c r="I12" s="7">
-        <v>36124</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3906,31 +3906,31 @@
         <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>1514</v>
+        <v>1574</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>1574</v>
+        <v>1514</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -3939,13 +3939,13 @@
         <v>3088</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,31 +3957,31 @@
         <v>29</v>
       </c>
       <c r="D14" s="7">
-        <v>21244</v>
+        <v>20491</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H14" s="7">
         <v>29</v>
       </c>
       <c r="I14" s="7">
-        <v>20491</v>
+        <v>21244</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M14" s="7">
         <v>58</v>
@@ -3990,13 +3990,13 @@
         <v>41735</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,7 +4008,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="7">
-        <v>22758</v>
+        <v>22065</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4023,7 +4023,7 @@
         <v>31</v>
       </c>
       <c r="I15" s="7">
-        <v>22065</v>
+        <v>22758</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4061,31 +4061,31 @@
         <v>24</v>
       </c>
       <c r="D16" s="7">
-        <v>16058</v>
+        <v>14895</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
       </c>
       <c r="I16" s="7">
-        <v>14895</v>
+        <v>16058</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>253</v>
+        <v>57</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -4094,13 +4094,13 @@
         <v>30953</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>257</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,34 +4109,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>168</v>
+      </c>
+      <c r="D17" s="7">
+        <v>112566</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H17" s="7">
         <v>155</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>107218</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H17" s="7">
-        <v>168</v>
-      </c>
-      <c r="I17" s="7">
-        <v>112566</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>263</v>
+        <v>66</v>
       </c>
       <c r="M17" s="7">
         <v>323</v>
@@ -4145,13 +4145,13 @@
         <v>219784</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>265</v>
+        <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,25 +4160,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>192</v>
+      </c>
+      <c r="D18" s="7">
+        <v>127461</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>179</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>123276</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>192</v>
-      </c>
-      <c r="I18" s="7">
-        <v>127461</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4227,7 +4227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6542682B-59CE-48DA-BFAC-8F61AD1D1A73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D013CF4-B21C-4303-B6C5-4F88176992B1}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4244,7 +4244,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4345,49 +4345,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3328</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
-        <v>387</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="H4" s="7">
-        <v>5</v>
-      </c>
       <c r="I4" s="7">
-        <v>3352</v>
+        <v>425</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>271</v>
+        <v>52</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>3738</v>
+        <v>3754</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,49 +4396,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>25</v>
+      </c>
+      <c r="D5" s="7">
+        <v>12655</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H5" s="7">
         <v>41</v>
       </c>
-      <c r="D5" s="7">
-        <v>20548</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="7">
-        <v>25</v>
-      </c>
       <c r="I5" s="7">
-        <v>12590</v>
+        <v>21932</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>280</v>
+        <v>62</v>
       </c>
       <c r="M5" s="7">
         <v>66</v>
       </c>
       <c r="N5" s="7">
-        <v>33139</v>
+        <v>34586</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,25 +4447,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>30</v>
+      </c>
+      <c r="D6" s="7">
+        <v>15983</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>42</v>
       </c>
-      <c r="D6" s="7">
-        <v>20935</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>30</v>
-      </c>
       <c r="I6" s="7">
-        <v>15942</v>
+        <v>22357</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4480,7 +4480,7 @@
         <v>72</v>
       </c>
       <c r="N6" s="7">
-        <v>36877</v>
+        <v>38340</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4500,49 +4500,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>9</v>
+      </c>
+      <c r="D7" s="7">
+        <v>7263</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H7" s="7">
         <v>8</v>
       </c>
-      <c r="D7" s="7">
-        <v>5449</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H7" s="7">
-        <v>9</v>
-      </c>
       <c r="I7" s="7">
-        <v>5694</v>
+        <v>5749</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
       </c>
       <c r="N7" s="7">
-        <v>11143</v>
+        <v>13012</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,49 +4551,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>63</v>
+      </c>
+      <c r="D8" s="7">
+        <v>39360</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H8" s="7">
         <v>67</v>
       </c>
-      <c r="D8" s="7">
-        <v>40553</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="H8" s="7">
-        <v>63</v>
-      </c>
       <c r="I8" s="7">
-        <v>39050</v>
+        <v>43235</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="M8" s="7">
         <v>130</v>
       </c>
       <c r="N8" s="7">
-        <v>79603</v>
+        <v>82595</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4602,25 +4602,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>72</v>
+      </c>
+      <c r="D9" s="7">
+        <v>46623</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>75</v>
       </c>
-      <c r="D9" s="7">
-        <v>46002</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>72</v>
-      </c>
       <c r="I9" s="7">
-        <v>44744</v>
+        <v>48984</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4635,7 +4635,7 @@
         <v>147</v>
       </c>
       <c r="N9" s="7">
-        <v>90746</v>
+        <v>95607</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4655,49 +4655,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3152</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H10" s="7">
         <v>3</v>
       </c>
-      <c r="D10" s="7">
-        <v>2938</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="H10" s="7">
-        <v>5</v>
-      </c>
       <c r="I10" s="7">
-        <v>3144</v>
+        <v>3004</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
       </c>
       <c r="N10" s="7">
-        <v>6083</v>
+        <v>6156</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,49 +4706,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>48</v>
+      </c>
+      <c r="D11" s="7">
+        <v>33999</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H11" s="7">
         <v>53</v>
       </c>
-      <c r="D11" s="7">
-        <v>40645</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="H11" s="7">
-        <v>48</v>
-      </c>
       <c r="I11" s="7">
-        <v>33759</v>
+        <v>43165</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="M11" s="7">
         <v>101</v>
       </c>
       <c r="N11" s="7">
-        <v>74403</v>
+        <v>77164</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4757,25 +4757,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>53</v>
+      </c>
+      <c r="D12" s="7">
+        <v>37151</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>56</v>
       </c>
-      <c r="D12" s="7">
-        <v>43583</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>53</v>
-      </c>
       <c r="I12" s="7">
-        <v>36903</v>
+        <v>46169</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4790,7 +4790,7 @@
         <v>109</v>
       </c>
       <c r="N12" s="7">
-        <v>80486</v>
+        <v>83320</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4810,49 +4810,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1269</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H13" s="7">
         <v>1</v>
       </c>
-      <c r="D13" s="7">
-        <v>614</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
       <c r="I13" s="7">
-        <v>1308</v>
+        <v>621</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>1922</v>
+        <v>1890</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,49 +4861,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>69</v>
+      </c>
+      <c r="D14" s="7">
+        <v>76688</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="7">
         <v>76</v>
       </c>
-      <c r="D14" s="7">
-        <v>61402</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="7">
-        <v>69</v>
-      </c>
       <c r="I14" s="7">
-        <v>55514</v>
+        <v>64071</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M14" s="7">
         <v>145</v>
       </c>
       <c r="N14" s="7">
-        <v>116917</v>
+        <v>140759</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4912,25 +4912,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>71</v>
+      </c>
+      <c r="D15" s="7">
+        <v>77957</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>77</v>
       </c>
-      <c r="D15" s="7">
-        <v>62016</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>71</v>
-      </c>
       <c r="I15" s="7">
-        <v>56822</v>
+        <v>64692</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4945,7 +4945,7 @@
         <v>148</v>
       </c>
       <c r="N15" s="7">
-        <v>118839</v>
+        <v>142649</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4965,49 +4965,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>21</v>
+      </c>
+      <c r="D16" s="7">
+        <v>15013</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H16" s="7">
         <v>13</v>
       </c>
-      <c r="D16" s="7">
-        <v>9388</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="H16" s="7">
-        <v>21</v>
-      </c>
       <c r="I16" s="7">
-        <v>13498</v>
+        <v>9798</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
       </c>
       <c r="N16" s="7">
-        <v>22886</v>
+        <v>24812</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>340</v>
+        <v>247</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,49 +5016,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>205</v>
+      </c>
+      <c r="D17" s="7">
+        <v>162702</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H17" s="7">
         <v>237</v>
       </c>
-      <c r="D17" s="7">
-        <v>163149</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="H17" s="7">
-        <v>205</v>
-      </c>
       <c r="I17" s="7">
-        <v>140914</v>
+        <v>172403</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M17" s="7">
         <v>442</v>
       </c>
       <c r="N17" s="7">
-        <v>304062</v>
+        <v>335104</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>349</v>
+        <v>254</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5067,25 +5067,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>226</v>
+      </c>
+      <c r="D18" s="7">
+        <v>177715</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>250</v>
       </c>
-      <c r="D18" s="7">
-        <v>172537</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>226</v>
-      </c>
       <c r="I18" s="7">
-        <v>154412</v>
+        <v>182201</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5100,7 +5100,7 @@
         <v>476</v>
       </c>
       <c r="N18" s="7">
-        <v>326948</v>
+        <v>359916</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5114,7 +5114,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
